--- a/MO/mo_lb3_huk_true_ans.xlsx
+++ b/MO/mo_lb3_huk_true_ans.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$B$7:$B$8</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -24,7 +24,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$B$1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$B$6</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>x1</t>
   </si>
@@ -109,6 +109,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="blob:https://web.telegram.org/4d5ea00f-8014-45c8-9d54-161965233329"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2495550" y="762000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +457,33 @@
         <v>-5.1282433975524927E-2</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f xml:space="preserve"> 4 * B7^2 + 4 * B8 ^2 - 4 * B7 * B8 + B8</f>
+        <v>-8.3333333332543058E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>-8.3333721310045794E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>-0.16666715163916998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>